--- a/FORO_REGIONAL_DA_RESTINGA.xlsx
+++ b/FORO_REGIONAL_DA_RESTINGA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5FFBE9C-8589-4926-ABB4-182698812E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{263F6A28-180F-4FA3-AB9D-7D311FF5F0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1143,7 +1143,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{6C9FF19B-D0B6-46EC-AEE0-E95443236413}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{DFA3B634-2EAC-49B3-BE4E-220D97C49ABC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1173,10 +1173,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9909108C-5F0D-4116-A4E4-1C2B92D0AB5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D25D258-57B3-4A04-9F09-1E5A6ADCFBB2}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1214,7 +1214,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E59D184-8C69-4AFE-885C-0FD0120332BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{270FEB7A-6EE0-4C66-9D48-C39BE6FE812C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1277,7 +1277,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AF17CDC-C7B1-4590-B865-DE2D037A1D62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C81B4964-F448-4FCA-8B39-C46DBA620F50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1296,7 +1296,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE0358A1-CEE8-ECFB-C457-2F7F391E6DB4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DD1F0D2-1AC1-25A4-A11A-CAF43979BC33}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1345,7 +1345,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{523EAC76-E565-A2E9-E404-EA2416A6A00F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEB83B73-4FCD-A198-CF2B-A5D911F6EEAA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1364,7 +1364,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C6CE211-6A03-2A50-44E1-91506E325F72}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C69F8E6D-4F20-439D-F078-5CE358BBDA81}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1395,7 +1395,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B5DD2C-C7F6-4642-AF83-D14E9EEE8C51}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F930585-224E-B2BE-BCB1-2D7B245A58FD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1426,7 +1426,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C452EAE-359B-F97C-B23B-001D7961AE17}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A828CE8-4253-9E5E-DE62-0F8E606E150B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1469,7 +1469,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18EE518D-F3ED-441E-861C-F692EEE9F407}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAEA52AB-4315-40D9-872E-41067DFFB3C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1507,7 +1507,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B665E12E-0DCF-4B15-A8CD-2F9D835363C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4652FFC4-99E5-49F9-900A-0D84717C0C0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,7 +1550,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5574707-3B74-43E9-8065-FE649D9B55C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{791BA8D3-3A79-451D-BE38-895413594C90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1863,7 +1863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0886623E-036E-43DD-B9D3-0F15A21E855F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED306213-71C1-4B43-8A67-BAA3D6B7A0F9}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5313,16 +5313,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="37.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="43.42578125" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="47.5703125" customWidth="1"/>
+    <col min="9" max="9" width="89" customWidth="1"/>
+    <col min="10" max="10" width="72.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/FORO_REGIONAL_DA_RESTINGA.xlsx
+++ b/FORO_REGIONAL_DA_RESTINGA.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{263F6A28-180F-4FA3-AB9D-7D311FF5F0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{149025B9-3C4C-4D05-ACB4-E22B0D66F913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="5" r:id="rId1"/>
+    <sheet name="Paineis DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="CPIP" sheetId="3" r:id="rId4"/>
     <sheet name="TCA" sheetId="4" r:id="rId5"/>
+    <sheet name="DGC" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="304">
   <si>
     <t>COMARCA</t>
   </si>
@@ -924,6 +925,18 @@
   </si>
   <si>
     <t>INVERSOR -48VCC/220VCA COM POTÊNCIA DE 1KVA. DEMAIS ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA.</t>
+  </si>
+  <si>
+    <t>TEMÁTICA</t>
+  </si>
+  <si>
+    <t>PROBLEMA</t>
+  </si>
+  <si>
+    <t>MOT-Diversos</t>
+  </si>
+  <si>
+    <t>Demora nos Atestes MOT</t>
   </si>
 </sst>
 </file>
@@ -933,7 +946,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -986,6 +999,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1000,7 +1026,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1010,6 +1036,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1083,9 +1115,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1138,12 +1170,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{DFA3B634-2EAC-49B3-BE4E-220D97C49ABC}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{A1B82932-5498-44D4-A351-A6984E15167D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1173,10 +1209,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D25D258-57B3-4A04-9F09-1E5A6ADCFBB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CAFB250-5FF3-4185-B146-9D7253BE7C6F}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1214,7 +1250,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{270FEB7A-6EE0-4C66-9D48-C39BE6FE812C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B53B690-F6A5-42B4-BC2F-9A97E112584E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1277,7 +1313,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C81B4964-F448-4FCA-8B39-C46DBA620F50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{109538CB-D80D-456D-97BC-7CC43175944A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1296,7 +1332,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DD1F0D2-1AC1-25A4-A11A-CAF43979BC33}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C43F99C3-08AC-3EF4-1B0F-A6DBC9D2D17C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1345,7 +1381,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEB83B73-4FCD-A198-CF2B-A5D911F6EEAA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DC1429A-03B5-7CBC-D94D-4DFF72B6E4F4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1364,7 +1400,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C69F8E6D-4F20-439D-F078-5CE358BBDA81}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D48EBB07-6ECB-E446-98CD-0A76DC650E56}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1395,7 +1431,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F930585-224E-B2BE-BCB1-2D7B245A58FD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E32225F-963A-4A33-17EC-C787138C26BE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1426,7 +1462,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A828CE8-4253-9E5E-DE62-0F8E606E150B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B88FE494-EB5C-6D30-68D5-EE71C3E5A12C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1469,7 +1505,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAEA52AB-4315-40D9-872E-41067DFFB3C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F561974-7F71-4BDF-AB5F-A3A81FD4F2B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1507,7 +1543,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4652FFC4-99E5-49F9-900A-0D84717C0C0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B89CFA48-B063-4788-9A93-B538902EF5BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,7 +1586,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{791BA8D3-3A79-451D-BE38-895413594C90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26EB798C-FD26-479A-9A94-31DA8F45D10F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1863,7 +1899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED306213-71C1-4B43-8A67-BAA3D6B7A0F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EC598F-6A49-4376-91BB-7578D82DB1C8}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1875,98 +1911,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="23"/>
-    <col min="6" max="6" width="2" style="23" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="23" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="23"/>
+    <col min="1" max="5" width="12.5703125" style="25"/>
+    <col min="6" max="6" width="2" style="25" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="25" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="22"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="22"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="22"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="22"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="22"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="22"/>
+      <c r="F6" s="24"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="22"/>
+      <c r="F7" s="24"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="22"/>
+      <c r="F8" s="24"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="22"/>
+      <c r="F9" s="24"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="22"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="22"/>
+      <c r="F11" s="24"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="22"/>
+      <c r="F12" s="24"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="22"/>
+      <c r="F13" s="24"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="22"/>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="22"/>
+      <c r="F15" s="24"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="22"/>
+      <c r="F16" s="24"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="22"/>
+      <c r="F17" s="24"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="22"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="22"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="22"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="22"/>
+      <c r="F21" s="24"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="22"/>
+      <c r="F22" s="24"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="22"/>
+      <c r="F23" s="24"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="22"/>
+      <c r="F24" s="24"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="22"/>
+      <c r="F25" s="24"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="22"/>
+      <c r="F26" s="24"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="22"/>
+      <c r="F27" s="24"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="22"/>
+      <c r="F28" s="24"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="22"/>
+      <c r="F29" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5468,4 +5504,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="88.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>303</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/FORO_REGIONAL_DA_RESTINGA.xlsx
+++ b/FORO_REGIONAL_DA_RESTINGA.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{149025B9-3C4C-4D05-ACB4-E22B0D66F913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF672E91-9578-4805-8F89-9E6EAFC505DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="6" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="CPIP" sheetId="3" r:id="rId4"/>
@@ -1179,7 +1179,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{A1B82932-5498-44D4-A351-A6984E15167D}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{F01C52B6-1CC3-4350-8140-909FE1340BFC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1209,10 +1209,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CAFB250-5FF3-4185-B146-9D7253BE7C6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{378B6832-4351-4487-A176-9FFD0E0C2B40}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1250,7 +1250,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B53B690-F6A5-42B4-BC2F-9A97E112584E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B98484F2-D2E0-4E95-986D-7A2249D48CD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1313,7 +1313,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{109538CB-D80D-456D-97BC-7CC43175944A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91FD4A61-7389-43DB-9262-7148C89BD0FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1332,7 +1332,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C43F99C3-08AC-3EF4-1B0F-A6DBC9D2D17C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D17BB89-BB3F-0787-BD46-CF0081B49602}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1381,7 +1381,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DC1429A-03B5-7CBC-D94D-4DFF72B6E4F4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBA74E86-309F-B6C7-448F-BFF481C05C4A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1400,7 +1400,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D48EBB07-6ECB-E446-98CD-0A76DC650E56}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2247C347-B8CD-CC26-A9C8-8548B4DBEA9E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1431,7 +1431,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E32225F-963A-4A33-17EC-C787138C26BE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C58CF1-FAED-3A84-1A5D-EAABAFDF13C4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1462,7 +1462,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B88FE494-EB5C-6D30-68D5-EE71C3E5A12C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD965F06-F1B3-F886-2EDD-188C916AEF4D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1505,7 +1505,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F561974-7F71-4BDF-AB5F-A3A81FD4F2B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{074EFBD2-0CCF-4C6D-A582-FE09909FACD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1543,7 +1543,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B89CFA48-B063-4788-9A93-B538902EF5BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B213B05F-4C60-49AE-911B-60291903BA76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1586,7 +1586,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26EB798C-FD26-479A-9A94-31DA8F45D10F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6697672D-B613-4D94-9A80-1E5DBC2B2A36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1899,7 +1899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EC598F-6A49-4376-91BB-7578D82DB1C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B45443-20E0-4618-B265-AC86D6448AB3}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/FORO_REGIONAL_DA_RESTINGA.xlsx
+++ b/FORO_REGIONAL_DA_RESTINGA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF672E91-9578-4805-8F89-9E6EAFC505DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2403EAA9-4093-40A2-B41E-BA5136BACA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1179,7 +1179,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{F01C52B6-1CC3-4350-8140-909FE1340BFC}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{88C6ED79-A618-432B-A165-30D5D1689CCD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1209,10 +1209,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{378B6832-4351-4487-A176-9FFD0E0C2B40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{605BD65E-5B56-4670-A2D1-82DCB80A9150}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1250,7 +1250,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B98484F2-D2E0-4E95-986D-7A2249D48CD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2561B617-9F88-450B-8B9D-9AC1503543A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1313,7 +1313,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91FD4A61-7389-43DB-9262-7148C89BD0FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5C7D3BE-CCED-49EC-AFDB-0DDD838BB7C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1332,7 +1332,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D17BB89-BB3F-0787-BD46-CF0081B49602}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DB5448F-DC98-2D27-C878-680465DC2EBF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1381,7 +1381,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBA74E86-309F-B6C7-448F-BFF481C05C4A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0449AE94-379D-E63C-CDB5-4D27937974C9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1400,7 +1400,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2247C347-B8CD-CC26-A9C8-8548B4DBEA9E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E50ED9A4-ADC1-3BD5-B492-394A3D2BC17F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1431,7 +1431,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C58CF1-FAED-3A84-1A5D-EAABAFDF13C4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A24BDE93-5335-050D-8099-117429377EB7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1462,7 +1462,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD965F06-F1B3-F886-2EDD-188C916AEF4D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A95B644-0370-46D3-893D-08BA1A163F17}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1505,7 +1505,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{074EFBD2-0CCF-4C6D-A582-FE09909FACD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEC055C1-1D40-4D39-A3DA-2D88CEBFB8C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1543,7 +1543,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B213B05F-4C60-49AE-911B-60291903BA76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE415E5F-7A92-4A6E-9993-E5121231BC1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1568,50 +1568,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6697672D-B613-4D94-9A80-1E5DBC2B2A36}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1899,7 +1855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B45443-20E0-4618-B265-AC86D6448AB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B44563-74C6-4B08-871A-C7CA643C1E6C}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
